--- a/biology/Médecine/Université_médicale_nationale_de_Donetsk/Université_médicale_nationale_de_Donetsk.xlsx
+++ b/biology/Médecine/Université_médicale_nationale_de_Donetsk/Université_médicale_nationale_de_Donetsk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_m%C3%A9dicale_nationale_de_Donetsk</t>
+          <t>Université_médicale_nationale_de_Donetsk</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'université nationale de médecine de Donetsk (en russe : Донецкий национальный медицинский университет, en ukrainien : Донецький національний медичний університет) est une université qui se trouve à Donetsk, à l'Est de l'Ukraine. Elle a été fondée en 1930.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_m%C3%A9dicale_nationale_de_Donetsk</t>
+          <t>Université_médicale_nationale_de_Donetsk</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,19 +523,21 @@
           <t>Structure de l'université</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'université est composée des 6 facultés suivantes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'université est composée des 6 facultés suivantes :
 Médecine ;
 Pédiatrie ;
 Dentiste ;
 Pharmacie ;
 Infirmier ;
 Santé publique ;
-			Buste de Maxime Gorki classé[1]
-			monument Gorki classé[2]
+			Buste de Maxime Gorki classé
+			monument Gorki classé
 			monument aux morts.
-Anciens étudiants</t>
+</t>
         </is>
       </c>
     </row>
